--- a/resources/sample.xlsx
+++ b/resources/sample.xlsx
@@ -5362,7 +5362,7 @@
         </is>
       </c>
       <c r="F70" s="28" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G70" s="28" t="n"/>
       <c r="H70" s="28" t="n"/>
@@ -5402,7 +5402,7 @@
         <v>6</v>
       </c>
       <c r="Z70" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AA70" s="28" t="n"/>
       <c r="AB70" s="28" t="n"/>
@@ -6372,7 +6372,7 @@
         </is>
       </c>
       <c r="F89" s="28" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="G89" s="28" t="n"/>
       <c r="H89" s="28" t="n"/>
@@ -6385,19 +6385,19 @@
       <c r="O89" s="28" t="n"/>
       <c r="P89" s="28" t="n"/>
       <c r="Q89" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R89" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S89" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T89" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="U89" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="V89" s="28" t="n">
         <v>6</v>
@@ -19502,7 +19502,7 @@
         </is>
       </c>
       <c r="F336" s="28" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G336" s="28" t="n"/>
       <c r="H336" s="28" t="n"/>
@@ -19542,7 +19542,7 @@
         <v>6</v>
       </c>
       <c r="Z336" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AA336" s="28" t="n"/>
       <c r="AB336" s="28" t="n"/>
@@ -20512,7 +20512,7 @@
         </is>
       </c>
       <c r="F355" s="28" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G355" s="28" t="n"/>
       <c r="H355" s="28" t="n"/>
@@ -20525,10 +20525,10 @@
       <c r="O355" s="28" t="n"/>
       <c r="P355" s="28" t="n"/>
       <c r="Q355" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R355" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S355" s="28" t="n">
         <v>6</v>
@@ -28592,7 +28592,7 @@
         </is>
       </c>
       <c r="F507" s="28" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G507" s="28" t="n"/>
       <c r="H507" s="28" t="n"/>
@@ -28626,7 +28626,7 @@
         <v>6</v>
       </c>
       <c r="X507" s="28" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Y507" s="28" t="n">
         <v>6</v>
@@ -29602,7 +29602,7 @@
         </is>
       </c>
       <c r="F526" s="28" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G526" s="28" t="n"/>
       <c r="H526" s="28" t="n"/>
@@ -29621,22 +29621,22 @@
         <v>6</v>
       </c>
       <c r="S526" s="28" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="T526" s="28" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="U526" s="28" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="V526" s="28" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="W526" s="28" t="n">
         <v>6</v>
       </c>
       <c r="X526" s="28" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Y526" s="28" t="n">
         <v>6</v>
@@ -30612,7 +30612,7 @@
         </is>
       </c>
       <c r="F545" s="28" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G545" s="28" t="n"/>
       <c r="H545" s="28" t="n"/>
@@ -30631,7 +30631,7 @@
         <v>6</v>
       </c>
       <c r="S545" s="28" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="T545" s="28" t="n">
         <v>6</v>
@@ -32592,10 +32592,10 @@
         <v>2267</v>
       </c>
       <c r="F8" s="45" t="n">
-        <v>2174</v>
+        <v>2282</v>
       </c>
       <c r="G8" s="45" t="n">
-        <v>1970</v>
+        <v>2431</v>
       </c>
       <c r="H8" s="45" t="n">
         <v>2168</v>
@@ -32634,10 +32634,10 @@
         <v>2417</v>
       </c>
       <c r="T8" s="45" t="n">
-        <v>2333</v>
+        <v>2449</v>
       </c>
       <c r="U8" s="45" t="n">
-        <v>2139</v>
+        <v>2330</v>
       </c>
       <c r="V8" s="45" t="n">
         <v>2346</v>
@@ -32661,13 +32661,13 @@
         <v>2262</v>
       </c>
       <c r="AC8" s="45" t="n">
-        <v>2606</v>
+        <v>2472</v>
       </c>
       <c r="AD8" s="45" t="n">
-        <v>3148</v>
+        <v>2515</v>
       </c>
       <c r="AE8" s="45" t="n">
-        <v>2739</v>
+        <v>2613</v>
       </c>
       <c r="AF8" s="45" t="n"/>
       <c r="AG8" s="37" t="n"/>

--- a/resources/sample.xlsx
+++ b/resources/sample.xlsx
@@ -5362,7 +5362,7 @@
         </is>
       </c>
       <c r="F70" s="28" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G70" s="28" t="n"/>
       <c r="H70" s="28" t="n"/>
@@ -5402,7 +5402,7 @@
         <v>6</v>
       </c>
       <c r="Z70" s="28" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AA70" s="28" t="n"/>
       <c r="AB70" s="28" t="n"/>
@@ -6372,7 +6372,7 @@
         </is>
       </c>
       <c r="F89" s="28" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G89" s="28" t="n"/>
       <c r="H89" s="28" t="n"/>
@@ -6385,19 +6385,19 @@
       <c r="O89" s="28" t="n"/>
       <c r="P89" s="28" t="n"/>
       <c r="Q89" s="28" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R89" s="28" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="S89" s="28" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="T89" s="28" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="U89" s="28" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="V89" s="28" t="n">
         <v>6</v>
@@ -19502,7 +19502,7 @@
         </is>
       </c>
       <c r="F336" s="28" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G336" s="28" t="n"/>
       <c r="H336" s="28" t="n"/>
@@ -19542,7 +19542,7 @@
         <v>6</v>
       </c>
       <c r="Z336" s="28" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AA336" s="28" t="n"/>
       <c r="AB336" s="28" t="n"/>
@@ -20512,7 +20512,7 @@
         </is>
       </c>
       <c r="F355" s="28" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G355" s="28" t="n"/>
       <c r="H355" s="28" t="n"/>
@@ -20525,10 +20525,10 @@
       <c r="O355" s="28" t="n"/>
       <c r="P355" s="28" t="n"/>
       <c r="Q355" s="28" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R355" s="28" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="S355" s="28" t="n">
         <v>6</v>
@@ -31621,7 +31621,9 @@
           <t>Советская ул., 81; Челюскинцев ул.; участок улично-дорожной сети</t>
         </is>
       </c>
-      <c r="F564" s="28" t="n"/>
+      <c r="F564" s="28" t="n">
+        <v>60</v>
+      </c>
       <c r="G564" s="28" t="n"/>
       <c r="H564" s="28" t="n"/>
       <c r="I564" s="28" t="n"/>
@@ -31632,16 +31634,36 @@
       <c r="N564" s="28" t="n"/>
       <c r="O564" s="28" t="n"/>
       <c r="P564" s="28" t="n"/>
-      <c r="Q564" s="28" t="n"/>
-      <c r="R564" s="28" t="n"/>
-      <c r="S564" s="28" t="n"/>
-      <c r="T564" s="28" t="n"/>
-      <c r="U564" s="28" t="n"/>
-      <c r="V564" s="28" t="n"/>
-      <c r="W564" s="28" t="n"/>
-      <c r="X564" s="28" t="n"/>
-      <c r="Y564" s="28" t="n"/>
-      <c r="Z564" s="28" t="n"/>
+      <c r="Q564" s="28" t="n">
+        <v>6</v>
+      </c>
+      <c r="R564" s="28" t="n">
+        <v>6</v>
+      </c>
+      <c r="S564" s="28" t="n">
+        <v>6</v>
+      </c>
+      <c r="T564" s="28" t="n">
+        <v>6</v>
+      </c>
+      <c r="U564" s="28" t="n">
+        <v>6</v>
+      </c>
+      <c r="V564" s="28" t="n">
+        <v>6</v>
+      </c>
+      <c r="W564" s="28" t="n">
+        <v>6</v>
+      </c>
+      <c r="X564" s="28" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y564" s="28" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z564" s="28" t="n">
+        <v>6</v>
+      </c>
       <c r="AA564" s="28" t="n"/>
       <c r="AB564" s="28" t="n"/>
       <c r="AC564" s="28" t="n"/>
@@ -32592,10 +32614,10 @@
         <v>2267</v>
       </c>
       <c r="F8" s="45" t="n">
-        <v>2282</v>
+        <v>2174</v>
       </c>
       <c r="G8" s="45" t="n">
-        <v>2431</v>
+        <v>1970</v>
       </c>
       <c r="H8" s="45" t="n">
         <v>2168</v>
@@ -32634,10 +32656,10 @@
         <v>2417</v>
       </c>
       <c r="T8" s="45" t="n">
-        <v>2449</v>
+        <v>2333</v>
       </c>
       <c r="U8" s="45" t="n">
-        <v>2330</v>
+        <v>2139</v>
       </c>
       <c r="V8" s="45" t="n">
         <v>2346</v>
@@ -32669,7 +32691,9 @@
       <c r="AE8" s="45" t="n">
         <v>2613</v>
       </c>
-      <c r="AF8" s="45" t="n"/>
+      <c r="AF8" s="45" t="n">
+        <v>2568</v>
+      </c>
       <c r="AG8" s="37" t="n"/>
       <c r="AH8" s="37" t="n"/>
       <c r="AI8" s="37" t="n"/>

--- a/resources/sample.xlsx
+++ b/resources/sample.xlsx
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="F13" s="28" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G13" s="28" t="n"/>
       <c r="H13" s="28" t="n"/>
@@ -2345,10 +2345,10 @@
       <c r="O13" s="28" t="n"/>
       <c r="P13" s="28" t="n"/>
       <c r="Q13" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R13" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="S13" s="28" t="n">
         <v>6</v>
@@ -2363,16 +2363,16 @@
         <v>6</v>
       </c>
       <c r="W13" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="X13" s="28" t="n">
         <v>6</v>
       </c>
       <c r="Y13" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="Z13" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AA13" s="28" t="n"/>
       <c r="AB13" s="28" t="n"/>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="F32" s="28" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G32" s="28" t="n"/>
       <c r="H32" s="28" t="n"/>
@@ -3355,10 +3355,10 @@
       <c r="O32" s="28" t="n"/>
       <c r="P32" s="28" t="n"/>
       <c r="Q32" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R32" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="S32" s="28" t="n">
         <v>6</v>
@@ -3373,16 +3373,16 @@
         <v>6</v>
       </c>
       <c r="W32" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="X32" s="28" t="n">
         <v>6</v>
       </c>
       <c r="Y32" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="Z32" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AA32" s="28" t="n"/>
       <c r="AB32" s="28" t="n"/>
@@ -4352,7 +4352,7 @@
         </is>
       </c>
       <c r="F51" s="28" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G51" s="28" t="n"/>
       <c r="H51" s="28" t="n"/>
@@ -4365,10 +4365,10 @@
       <c r="O51" s="28" t="n"/>
       <c r="P51" s="28" t="n"/>
       <c r="Q51" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R51" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="S51" s="28" t="n">
         <v>6</v>
@@ -4383,16 +4383,16 @@
         <v>6</v>
       </c>
       <c r="W51" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="X51" s="28" t="n">
         <v>6</v>
       </c>
       <c r="Y51" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="Z51" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AA51" s="28" t="n"/>
       <c r="AB51" s="28" t="n"/>
@@ -5362,7 +5362,7 @@
         </is>
       </c>
       <c r="F70" s="28" t="n">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="G70" s="28" t="n"/>
       <c r="H70" s="28" t="n"/>
@@ -5381,22 +5381,22 @@
         <v>6</v>
       </c>
       <c r="S70" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T70" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="U70" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="V70" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="W70" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="X70" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Y70" s="28" t="n">
         <v>6</v>
@@ -6372,7 +6372,7 @@
         </is>
       </c>
       <c r="F89" s="28" t="n">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="G89" s="28" t="n"/>
       <c r="H89" s="28" t="n"/>
@@ -6391,22 +6391,22 @@
         <v>6</v>
       </c>
       <c r="S89" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T89" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="U89" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="V89" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="W89" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="X89" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Y89" s="28" t="n">
         <v>6</v>
@@ -7382,7 +7382,7 @@
         </is>
       </c>
       <c r="F108" s="28" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G108" s="28" t="n"/>
       <c r="H108" s="28" t="n"/>
@@ -7395,10 +7395,10 @@
       <c r="O108" s="28" t="n"/>
       <c r="P108" s="28" t="n"/>
       <c r="Q108" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R108" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="S108" s="28" t="n">
         <v>6</v>
@@ -7413,16 +7413,16 @@
         <v>6</v>
       </c>
       <c r="W108" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="X108" s="28" t="n">
         <v>6</v>
       </c>
       <c r="Y108" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="Z108" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AA108" s="28" t="n"/>
       <c r="AB108" s="28" t="n"/>
@@ -8392,7 +8392,7 @@
         </is>
       </c>
       <c r="F127" s="28" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G127" s="28" t="n"/>
       <c r="H127" s="28" t="n"/>
@@ -8405,10 +8405,10 @@
       <c r="O127" s="28" t="n"/>
       <c r="P127" s="28" t="n"/>
       <c r="Q127" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R127" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="S127" s="28" t="n">
         <v>6</v>
@@ -8423,16 +8423,16 @@
         <v>6</v>
       </c>
       <c r="W127" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="X127" s="28" t="n">
         <v>6</v>
       </c>
       <c r="Y127" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="Z127" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AA127" s="28" t="n"/>
       <c r="AB127" s="28" t="n"/>
@@ -9402,7 +9402,7 @@
         </is>
       </c>
       <c r="F146" s="28" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G146" s="28" t="n"/>
       <c r="H146" s="28" t="n"/>
@@ -9415,10 +9415,10 @@
       <c r="O146" s="28" t="n"/>
       <c r="P146" s="28" t="n"/>
       <c r="Q146" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R146" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="S146" s="28" t="n">
         <v>6</v>
@@ -9433,16 +9433,16 @@
         <v>6</v>
       </c>
       <c r="W146" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="X146" s="28" t="n">
         <v>6</v>
       </c>
       <c r="Y146" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="Z146" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AA146" s="28" t="n"/>
       <c r="AB146" s="28" t="n"/>
@@ -10412,7 +10412,7 @@
         </is>
       </c>
       <c r="F165" s="28" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G165" s="28" t="n"/>
       <c r="H165" s="28" t="n"/>
@@ -10425,10 +10425,10 @@
       <c r="O165" s="28" t="n"/>
       <c r="P165" s="28" t="n"/>
       <c r="Q165" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R165" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="S165" s="28" t="n">
         <v>6</v>
@@ -10443,16 +10443,16 @@
         <v>6</v>
       </c>
       <c r="W165" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="X165" s="28" t="n">
         <v>6</v>
       </c>
       <c r="Y165" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="Z165" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AA165" s="28" t="n"/>
       <c r="AB165" s="28" t="n"/>
@@ -11422,7 +11422,7 @@
         </is>
       </c>
       <c r="F184" s="28" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G184" s="28" t="n"/>
       <c r="H184" s="28" t="n"/>
@@ -11435,10 +11435,10 @@
       <c r="O184" s="28" t="n"/>
       <c r="P184" s="28" t="n"/>
       <c r="Q184" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R184" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="S184" s="28" t="n">
         <v>6</v>
@@ -11453,16 +11453,16 @@
         <v>6</v>
       </c>
       <c r="W184" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="X184" s="28" t="n">
         <v>6</v>
       </c>
       <c r="Y184" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="Z184" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AA184" s="28" t="n"/>
       <c r="AB184" s="28" t="n"/>
@@ -12432,7 +12432,7 @@
         </is>
       </c>
       <c r="F203" s="28" t="n">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="G203" s="28" t="n"/>
       <c r="H203" s="28" t="n"/>
@@ -12451,28 +12451,28 @@
         <v>6</v>
       </c>
       <c r="S203" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T203" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="U203" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="V203" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="W203" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="X203" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Y203" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="Z203" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="AA203" s="28" t="n"/>
       <c r="AB203" s="28" t="n"/>
@@ -13442,7 +13442,7 @@
         </is>
       </c>
       <c r="F222" s="28" t="n">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="G222" s="28" t="n"/>
       <c r="H222" s="28" t="n"/>
@@ -13455,34 +13455,34 @@
       <c r="O222" s="28" t="n"/>
       <c r="P222" s="28" t="n"/>
       <c r="Q222" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="R222" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="S222" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T222" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="U222" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="V222" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="W222" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="X222" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Y222" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="Z222" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="AA222" s="28" t="n"/>
       <c r="AB222" s="28" t="n"/>
@@ -14452,7 +14452,7 @@
         </is>
       </c>
       <c r="F241" s="28" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="G241" s="28" t="n"/>
       <c r="H241" s="28" t="n"/>
@@ -14465,34 +14465,34 @@
       <c r="O241" s="28" t="n"/>
       <c r="P241" s="28" t="n"/>
       <c r="Q241" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R241" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="S241" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="T241" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="U241" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="V241" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="W241" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="X241" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="Y241" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="Z241" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AA241" s="28" t="n"/>
       <c r="AB241" s="28" t="n"/>
@@ -15462,7 +15462,7 @@
         </is>
       </c>
       <c r="F260" s="28" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="G260" s="28" t="n"/>
       <c r="H260" s="28" t="n"/>
@@ -15475,34 +15475,34 @@
       <c r="O260" s="28" t="n"/>
       <c r="P260" s="28" t="n"/>
       <c r="Q260" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R260" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="S260" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="T260" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="U260" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="V260" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="W260" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="X260" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="Y260" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="Z260" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AA260" s="28" t="n"/>
       <c r="AB260" s="28" t="n"/>
@@ -16472,7 +16472,7 @@
         </is>
       </c>
       <c r="F279" s="28" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="G279" s="28" t="n"/>
       <c r="H279" s="28" t="n"/>
@@ -16485,34 +16485,34 @@
       <c r="O279" s="28" t="n"/>
       <c r="P279" s="28" t="n"/>
       <c r="Q279" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R279" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="S279" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="T279" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="U279" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="V279" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="W279" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="X279" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="Y279" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="Z279" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AA279" s="28" t="n"/>
       <c r="AB279" s="28" t="n"/>
@@ -17482,7 +17482,7 @@
         </is>
       </c>
       <c r="F298" s="28" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="G298" s="28" t="n"/>
       <c r="H298" s="28" t="n"/>
@@ -17495,34 +17495,34 @@
       <c r="O298" s="28" t="n"/>
       <c r="P298" s="28" t="n"/>
       <c r="Q298" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R298" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="S298" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="T298" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="U298" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="V298" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="W298" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="X298" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="Y298" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="Z298" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AA298" s="28" t="n"/>
       <c r="AB298" s="28" t="n"/>
@@ -18492,7 +18492,7 @@
         </is>
       </c>
       <c r="F317" s="28" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="G317" s="28" t="n"/>
       <c r="H317" s="28" t="n"/>
@@ -18505,34 +18505,34 @@
       <c r="O317" s="28" t="n"/>
       <c r="P317" s="28" t="n"/>
       <c r="Q317" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R317" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="S317" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="T317" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="U317" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="V317" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="W317" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="X317" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="Y317" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="Z317" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AA317" s="28" t="n"/>
       <c r="AB317" s="28" t="n"/>
@@ -19502,7 +19502,7 @@
         </is>
       </c>
       <c r="F336" s="28" t="n">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="G336" s="28" t="n"/>
       <c r="H336" s="28" t="n"/>
@@ -19515,34 +19515,34 @@
       <c r="O336" s="28" t="n"/>
       <c r="P336" s="28" t="n"/>
       <c r="Q336" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="R336" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="S336" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T336" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="U336" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="V336" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="W336" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="X336" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Y336" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="Z336" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="AA336" s="28" t="n"/>
       <c r="AB336" s="28" t="n"/>
@@ -20512,7 +20512,7 @@
         </is>
       </c>
       <c r="F355" s="28" t="n">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="G355" s="28" t="n"/>
       <c r="H355" s="28" t="n"/>
@@ -20525,34 +20525,34 @@
       <c r="O355" s="28" t="n"/>
       <c r="P355" s="28" t="n"/>
       <c r="Q355" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="R355" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="S355" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T355" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="U355" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="V355" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="W355" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="X355" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Y355" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="Z355" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="AA355" s="28" t="n"/>
       <c r="AB355" s="28" t="n"/>
@@ -21522,7 +21522,7 @@
         </is>
       </c>
       <c r="F374" s="28" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="G374" s="28" t="n"/>
       <c r="H374" s="28" t="n"/>
@@ -21535,34 +21535,34 @@
       <c r="O374" s="28" t="n"/>
       <c r="P374" s="28" t="n"/>
       <c r="Q374" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R374" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="S374" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="T374" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="U374" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="V374" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="W374" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="X374" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="Y374" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="Z374" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AA374" s="28" t="n"/>
       <c r="AB374" s="28" t="n"/>
@@ -22532,7 +22532,7 @@
         </is>
       </c>
       <c r="F393" s="28" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="G393" s="28" t="n"/>
       <c r="H393" s="28" t="n"/>
@@ -22545,34 +22545,34 @@
       <c r="O393" s="28" t="n"/>
       <c r="P393" s="28" t="n"/>
       <c r="Q393" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R393" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="S393" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="T393" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="U393" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="V393" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="W393" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="X393" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="Y393" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="Z393" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AA393" s="28" t="n"/>
       <c r="AB393" s="28" t="n"/>
@@ -23542,7 +23542,7 @@
         </is>
       </c>
       <c r="F412" s="28" t="n">
-        <v>60</v>
+        <v>204</v>
       </c>
       <c r="G412" s="28" t="n"/>
       <c r="H412" s="28" t="n"/>
@@ -23555,34 +23555,34 @@
       <c r="O412" s="28" t="n"/>
       <c r="P412" s="28" t="n"/>
       <c r="Q412" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R412" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="S412" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="T412" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="U412" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="V412" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="W412" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="X412" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="Y412" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="Z412" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AA412" s="28" t="n"/>
       <c r="AB412" s="28" t="n"/>
@@ -24552,7 +24552,7 @@
         </is>
       </c>
       <c r="F431" s="28" t="n">
-        <v>60</v>
+        <v>204</v>
       </c>
       <c r="G431" s="28" t="n"/>
       <c r="H431" s="28" t="n"/>
@@ -24565,34 +24565,34 @@
       <c r="O431" s="28" t="n"/>
       <c r="P431" s="28" t="n"/>
       <c r="Q431" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R431" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="S431" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="T431" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="U431" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="V431" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="W431" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="X431" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="Y431" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="Z431" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AA431" s="28" t="n"/>
       <c r="AB431" s="28" t="n"/>
@@ -25562,7 +25562,7 @@
         </is>
       </c>
       <c r="F450" s="28" t="n">
-        <v>60</v>
+        <v>192</v>
       </c>
       <c r="G450" s="28" t="n"/>
       <c r="H450" s="28" t="n"/>
@@ -25575,34 +25575,34 @@
       <c r="O450" s="28" t="n"/>
       <c r="P450" s="28" t="n"/>
       <c r="Q450" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R450" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="S450" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="T450" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="U450" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="V450" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="W450" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="X450" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="Y450" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="Z450" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AA450" s="28" t="n"/>
       <c r="AB450" s="28" t="n"/>
@@ -26572,7 +26572,7 @@
         </is>
       </c>
       <c r="F469" s="28" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="G469" s="28" t="n"/>
       <c r="H469" s="28" t="n"/>
@@ -26585,34 +26585,34 @@
       <c r="O469" s="28" t="n"/>
       <c r="P469" s="28" t="n"/>
       <c r="Q469" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="R469" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="S469" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T469" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="U469" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="V469" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="W469" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="X469" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Y469" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="Z469" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="AA469" s="28" t="n"/>
       <c r="AB469" s="28" t="n"/>
@@ -27582,7 +27582,7 @@
         </is>
       </c>
       <c r="F488" s="28" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="G488" s="28" t="n"/>
       <c r="H488" s="28" t="n"/>
@@ -27595,34 +27595,34 @@
       <c r="O488" s="28" t="n"/>
       <c r="P488" s="28" t="n"/>
       <c r="Q488" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="R488" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="S488" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T488" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="U488" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="V488" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="W488" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="X488" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Y488" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="Z488" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="AA488" s="28" t="n"/>
       <c r="AB488" s="28" t="n"/>
@@ -28592,7 +28592,7 @@
         </is>
       </c>
       <c r="F507" s="28" t="n">
-        <v>60</v>
+        <v>192</v>
       </c>
       <c r="G507" s="28" t="n"/>
       <c r="H507" s="28" t="n"/>
@@ -28605,34 +28605,34 @@
       <c r="O507" s="28" t="n"/>
       <c r="P507" s="28" t="n"/>
       <c r="Q507" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R507" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="S507" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="T507" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="U507" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="V507" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="W507" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="X507" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="Y507" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="Z507" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AA507" s="28" t="n"/>
       <c r="AB507" s="28" t="n"/>
@@ -29602,7 +29602,7 @@
         </is>
       </c>
       <c r="F526" s="28" t="n">
-        <v>60</v>
+        <v>192</v>
       </c>
       <c r="G526" s="28" t="n"/>
       <c r="H526" s="28" t="n"/>
@@ -29615,34 +29615,34 @@
       <c r="O526" s="28" t="n"/>
       <c r="P526" s="28" t="n"/>
       <c r="Q526" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R526" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="S526" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="T526" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="U526" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="V526" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="W526" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="X526" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="Y526" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="Z526" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AA526" s="28" t="n"/>
       <c r="AB526" s="28" t="n"/>
@@ -30612,7 +30612,7 @@
         </is>
       </c>
       <c r="F545" s="28" t="n">
-        <v>60</v>
+        <v>192</v>
       </c>
       <c r="G545" s="28" t="n"/>
       <c r="H545" s="28" t="n"/>
@@ -30625,34 +30625,34 @@
       <c r="O545" s="28" t="n"/>
       <c r="P545" s="28" t="n"/>
       <c r="Q545" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R545" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="S545" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="T545" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="U545" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="V545" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="W545" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="X545" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="Y545" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="Z545" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AA545" s="28" t="n"/>
       <c r="AB545" s="28" t="n"/>
@@ -31622,7 +31622,7 @@
         </is>
       </c>
       <c r="F564" s="28" t="n">
-        <v>60</v>
+        <v>192</v>
       </c>
       <c r="G564" s="28" t="n"/>
       <c r="H564" s="28" t="n"/>
@@ -31635,34 +31635,34 @@
       <c r="O564" s="28" t="n"/>
       <c r="P564" s="28" t="n"/>
       <c r="Q564" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R564" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="S564" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="T564" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="U564" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="V564" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="W564" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="X564" s="28" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="Y564" s="28" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="Z564" s="28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AA564" s="28" t="n"/>
       <c r="AB564" s="28" t="n"/>
@@ -32605,94 +32605,94 @@
         </is>
       </c>
       <c r="C8" s="44" t="n">
-        <v>2243</v>
+        <v>4522</v>
       </c>
       <c r="D8" s="45" t="n">
-        <v>2183</v>
+        <v>4401</v>
       </c>
       <c r="E8" s="45" t="n">
-        <v>2267</v>
+        <v>4574</v>
       </c>
       <c r="F8" s="45" t="n">
-        <v>2174</v>
+        <v>2837</v>
       </c>
       <c r="G8" s="45" t="n">
-        <v>1970</v>
+        <v>2571</v>
       </c>
       <c r="H8" s="45" t="n">
-        <v>2168</v>
+        <v>4375</v>
       </c>
       <c r="I8" s="45" t="n">
-        <v>2201</v>
+        <v>4439</v>
       </c>
       <c r="J8" s="45" t="n">
-        <v>2289</v>
+        <v>4614</v>
       </c>
       <c r="K8" s="45" t="n">
-        <v>2234</v>
+        <v>4504</v>
       </c>
       <c r="L8" s="45" t="n">
-        <v>2324</v>
+        <v>4688</v>
       </c>
       <c r="M8" s="45" t="n">
-        <v>2236</v>
+        <v>3836</v>
       </c>
       <c r="N8" s="45" t="n">
-        <v>2038</v>
+        <v>4251</v>
       </c>
       <c r="O8" s="45" t="n">
-        <v>2242</v>
+        <v>6779</v>
       </c>
       <c r="P8" s="45" t="n">
-        <v>2279</v>
+        <v>6890</v>
       </c>
       <c r="Q8" s="45" t="n">
-        <v>2372</v>
+        <v>7168</v>
       </c>
       <c r="R8" s="45" t="n">
-        <v>2322</v>
+        <v>7018</v>
       </c>
       <c r="S8" s="45" t="n">
-        <v>2417</v>
+        <v>7304</v>
       </c>
       <c r="T8" s="45" t="n">
-        <v>2333</v>
+        <v>4868</v>
       </c>
       <c r="U8" s="45" t="n">
-        <v>2139</v>
+        <v>4463</v>
       </c>
       <c r="V8" s="45" t="n">
-        <v>2346</v>
+        <v>7093</v>
       </c>
       <c r="W8" s="45" t="n">
-        <v>2388</v>
+        <v>7215</v>
       </c>
       <c r="X8" s="45" t="n">
-        <v>2483</v>
+        <v>8515</v>
       </c>
       <c r="Y8" s="45" t="n">
-        <v>2437</v>
+        <v>8327</v>
       </c>
       <c r="Z8" s="45" t="n">
-        <v>2535</v>
+        <v>8156</v>
       </c>
       <c r="AA8" s="45" t="n">
-        <v>2454</v>
+        <v>6081</v>
       </c>
       <c r="AB8" s="45" t="n">
-        <v>2262</v>
+        <v>5608</v>
       </c>
       <c r="AC8" s="45" t="n">
-        <v>2472</v>
+        <v>7955</v>
       </c>
       <c r="AD8" s="45" t="n">
-        <v>2515</v>
+        <v>8092</v>
       </c>
       <c r="AE8" s="45" t="n">
-        <v>2613</v>
+        <v>8407</v>
       </c>
       <c r="AF8" s="45" t="n">
-        <v>2568</v>
+        <v>8262</v>
       </c>
       <c r="AG8" s="37" t="n"/>
       <c r="AH8" s="37" t="n"/>
